--- a/code_books/student_profile_codebook.xlsx
+++ b/code_books/student_profile_codebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\DATA485\consulting-project-si-1\code_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8767AE0-76E3-4E93-8E0E-EFF9FD60B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A749F81-8677-47B0-A530-FE0442125176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:K383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
